--- a/Code/Results/Cases/Case_4_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006356076629313</v>
+        <v>1.032022510714174</v>
       </c>
       <c r="D2">
-        <v>1.024503813744561</v>
+        <v>1.039439945612714</v>
       </c>
       <c r="E2">
-        <v>1.014489312463127</v>
+        <v>1.035662548159038</v>
       </c>
       <c r="F2">
-        <v>1.025149849445414</v>
+        <v>1.04665282801693</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044250830575475</v>
+        <v>1.036623732717049</v>
       </c>
       <c r="J2">
-        <v>1.028348326410889</v>
+        <v>1.037155017940469</v>
       </c>
       <c r="K2">
-        <v>1.035632008866544</v>
+        <v>1.042225128265613</v>
       </c>
       <c r="L2">
-        <v>1.025750412347047</v>
+        <v>1.038458509889307</v>
       </c>
       <c r="M2">
-        <v>1.036269582604089</v>
+        <v>1.04941766266144</v>
       </c>
       <c r="N2">
-        <v>1.013301157430477</v>
+        <v>1.016362412607031</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010171035723388</v>
+        <v>1.03283848813016</v>
       </c>
       <c r="D3">
-        <v>1.027332704646348</v>
+        <v>1.040072315802218</v>
       </c>
       <c r="E3">
-        <v>1.017809964754841</v>
+        <v>1.036426211215169</v>
       </c>
       <c r="F3">
-        <v>1.028672787827304</v>
+        <v>1.047466279922317</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045257172267258</v>
+        <v>1.036795366223756</v>
       </c>
       <c r="J3">
-        <v>1.030388216674462</v>
+        <v>1.037613794783101</v>
       </c>
       <c r="K3">
-        <v>1.03762740660014</v>
+        <v>1.042668186436973</v>
       </c>
       <c r="L3">
-        <v>1.028219924518575</v>
+        <v>1.039031735889701</v>
       </c>
       <c r="M3">
-        <v>1.038951482569191</v>
+        <v>1.050042795848377</v>
       </c>
       <c r="N3">
-        <v>1.013988965375103</v>
+        <v>1.016515960411325</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012595615812935</v>
+        <v>1.033367174661673</v>
       </c>
       <c r="D4">
-        <v>1.029133847364015</v>
+        <v>1.040482116614585</v>
       </c>
       <c r="E4">
-        <v>1.019925753147699</v>
+        <v>1.036921382031249</v>
       </c>
       <c r="F4">
-        <v>1.030917450373796</v>
+        <v>1.047993732321753</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045888815327086</v>
+        <v>1.036905570304299</v>
       </c>
       <c r="J4">
-        <v>1.031682521528114</v>
+        <v>1.037910680313308</v>
       </c>
       <c r="K4">
-        <v>1.038892921977782</v>
+        <v>1.042954799093532</v>
       </c>
       <c r="L4">
-        <v>1.029789495894868</v>
+        <v>1.03940301887937</v>
       </c>
       <c r="M4">
-        <v>1.040656516978093</v>
+        <v>1.050447739748749</v>
       </c>
       <c r="N4">
-        <v>1.014425228662592</v>
+        <v>1.016615284520294</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013604703036259</v>
+        <v>1.033589599032813</v>
       </c>
       <c r="D5">
-        <v>1.029884207092739</v>
+        <v>1.0406545422796</v>
       </c>
       <c r="E5">
-        <v>1.020807582257507</v>
+        <v>1.037129796432957</v>
       </c>
       <c r="F5">
-        <v>1.03185298917278</v>
+        <v>1.04821573333743</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046149765728211</v>
+        <v>1.036951694866977</v>
       </c>
       <c r="J5">
-        <v>1.032220659879744</v>
+        <v>1.038035495979661</v>
       </c>
       <c r="K5">
-        <v>1.039418949734567</v>
+        <v>1.043075271620341</v>
       </c>
       <c r="L5">
-        <v>1.030442728729753</v>
+        <v>1.039559192667408</v>
       </c>
       <c r="M5">
-        <v>1.041366239695617</v>
+        <v>1.050618082039646</v>
       </c>
       <c r="N5">
-        <v>1.014606577531429</v>
+        <v>1.01665703233633</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013773543676518</v>
+        <v>1.033626954662672</v>
       </c>
       <c r="D6">
-        <v>1.030009799844493</v>
+        <v>1.040683501780687</v>
       </c>
       <c r="E6">
-        <v>1.02095520317824</v>
+        <v>1.037164804414722</v>
       </c>
       <c r="F6">
-        <v>1.032009601088294</v>
+        <v>1.048253023473954</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046193313486188</v>
+        <v>1.036959427328232</v>
       </c>
       <c r="J6">
-        <v>1.032310668847991</v>
+        <v>1.0380564533343</v>
       </c>
       <c r="K6">
-        <v>1.039506924628139</v>
+        <v>1.043095498309305</v>
       </c>
       <c r="L6">
-        <v>1.030552026490006</v>
+        <v>1.03958541995633</v>
       </c>
       <c r="M6">
-        <v>1.041484995791812</v>
+        <v>1.05064668930217</v>
       </c>
       <c r="N6">
-        <v>1.014636907619289</v>
+        <v>1.016664041493028</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012609138979149</v>
+        <v>1.033370146062589</v>
       </c>
       <c r="D7">
-        <v>1.029143900348368</v>
+        <v>1.040484420005729</v>
       </c>
       <c r="E7">
-        <v>1.019937565949114</v>
+        <v>1.036924165916043</v>
       </c>
       <c r="F7">
-        <v>1.030929982671051</v>
+        <v>1.04799669769101</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045892320096528</v>
+        <v>1.036906187430281</v>
       </c>
       <c r="J7">
-        <v>1.031689735489353</v>
+        <v>1.037912348088366</v>
       </c>
       <c r="K7">
-        <v>1.038899974155809</v>
+        <v>1.042956408931368</v>
       </c>
       <c r="L7">
-        <v>1.029798250187031</v>
+        <v>1.039405105343542</v>
       </c>
       <c r="M7">
-        <v>1.040666027877953</v>
+        <v>1.050450015464733</v>
       </c>
       <c r="N7">
-        <v>1.01442765987066</v>
+        <v>1.016615842388845</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00765465547805</v>
+        <v>1.032298129243325</v>
       </c>
       <c r="D8">
-        <v>1.025466038038832</v>
+        <v>1.039653529635137</v>
       </c>
       <c r="E8">
-        <v>1.015618493246439</v>
+        <v>1.035920417283924</v>
       </c>
       <c r="F8">
-        <v>1.026347820421734</v>
+        <v>1.046927510028791</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044595022552996</v>
+        <v>1.036681913515568</v>
       </c>
       <c r="J8">
-        <v>1.029043118831297</v>
+        <v>1.037310057513658</v>
       </c>
       <c r="K8">
-        <v>1.036311760142874</v>
+        <v>1.042374876702046</v>
       </c>
       <c r="L8">
-        <v>1.026590977869495</v>
+        <v>1.038652157290242</v>
       </c>
       <c r="M8">
-        <v>1.037182339958685</v>
+        <v>1.049628837039676</v>
       </c>
       <c r="N8">
-        <v>1.013535456572052</v>
+        <v>1.016414311060057</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9985727044314869</v>
+        <v>1.03041449495762</v>
       </c>
       <c r="D9">
-        <v>1.018751882876085</v>
+        <v>1.038194185923415</v>
       </c>
       <c r="E9">
-        <v>1.007745143934711</v>
+        <v>1.034159656215723</v>
       </c>
       <c r="F9">
-        <v>1.017994750926215</v>
+        <v>1.04505193799485</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0421555727472</v>
+        <v>1.036280203305077</v>
       </c>
       <c r="J9">
-        <v>1.024175965056215</v>
+        <v>1.036249002639929</v>
       </c>
       <c r="K9">
-        <v>1.031547877453552</v>
+        <v>1.041349622558983</v>
       </c>
       <c r="L9">
-        <v>1.020713799092724</v>
+        <v>1.037328249141949</v>
       </c>
       <c r="M9">
-        <v>1.030802469713924</v>
+        <v>1.048185267205029</v>
       </c>
       <c r="N9">
-        <v>1.011893610217594</v>
+        <v>1.016058966282134</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9922598461789068</v>
+        <v>1.029162470320995</v>
       </c>
       <c r="D10">
-        <v>1.014106342339167</v>
+        <v>1.037224621006888</v>
       </c>
       <c r="E10">
-        <v>1.002304089695277</v>
+        <v>1.032991291255478</v>
       </c>
       <c r="F10">
-        <v>1.012222076859607</v>
+        <v>1.043807374826085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040420379438564</v>
+        <v>1.036008061906288</v>
       </c>
       <c r="J10">
-        <v>1.02078396030902</v>
+        <v>1.03554188339682</v>
       </c>
       <c r="K10">
-        <v>1.028225489234446</v>
+        <v>1.040665849853208</v>
       </c>
       <c r="L10">
-        <v>1.016631867334689</v>
+        <v>1.036447674146314</v>
       </c>
       <c r="M10">
-        <v>1.026374109518959</v>
+        <v>1.047225308542532</v>
       </c>
       <c r="N10">
-        <v>1.010748800751747</v>
+        <v>1.015821949782445</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9894598519318342</v>
+        <v>1.028621236711374</v>
       </c>
       <c r="D11">
-        <v>1.012051602731705</v>
+        <v>1.036805601934494</v>
       </c>
       <c r="E11">
-        <v>0.9998987790334799</v>
+        <v>1.032486699591943</v>
       </c>
       <c r="F11">
-        <v>1.009670143783933</v>
+        <v>1.043269870907488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039641829589559</v>
+        <v>1.035889202649187</v>
       </c>
       <c r="J11">
-        <v>1.019277783671533</v>
+        <v>1.03523576872494</v>
       </c>
       <c r="K11">
-        <v>1.02674976684353</v>
+        <v>1.040369721556383</v>
       </c>
       <c r="L11">
-        <v>1.0148226044861</v>
+        <v>1.036066876589112</v>
       </c>
       <c r="M11">
-        <v>1.024411970793272</v>
+        <v>1.046810231427294</v>
       </c>
       <c r="N11">
-        <v>1.010240358533254</v>
+        <v>1.015719296586966</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9884093480475566</v>
+        <v>1.028420335620949</v>
       </c>
       <c r="D12">
-        <v>1.011281622721871</v>
+        <v>1.036650083013782</v>
       </c>
       <c r="E12">
-        <v>0.998997598746031</v>
+        <v>1.032299471799216</v>
       </c>
       <c r="F12">
-        <v>1.008714025971738</v>
+        <v>1.043070430464626</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039348431195506</v>
+        <v>1.035844900470971</v>
       </c>
       <c r="J12">
-        <v>1.018712476586209</v>
+        <v>1.035122076333331</v>
       </c>
       <c r="K12">
-        <v>1.0261958299925</v>
+        <v>1.040259720140187</v>
       </c>
       <c r="L12">
-        <v>1.014144028412279</v>
+        <v>1.035925507706749</v>
       </c>
       <c r="M12">
-        <v>1.023676161783577</v>
+        <v>1.04665614387067</v>
       </c>
       <c r="N12">
-        <v>1.010049514162747</v>
+        <v>1.015681163576975</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9886351659886373</v>
+        <v>1.028463423351311</v>
       </c>
       <c r="D13">
-        <v>1.011447096359798</v>
+        <v>1.036683436734939</v>
       </c>
       <c r="E13">
-        <v>0.9991912608352449</v>
+        <v>1.032339623713101</v>
       </c>
       <c r="F13">
-        <v>1.008919494199161</v>
+        <v>1.043113201469529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039411558739314</v>
+        <v>1.03585441033056</v>
       </c>
       <c r="J13">
-        <v>1.018834005166849</v>
+        <v>1.035146463162829</v>
       </c>
       <c r="K13">
-        <v>1.026314916791699</v>
+        <v>1.040283316075256</v>
       </c>
       <c r="L13">
-        <v>1.014289885377675</v>
+        <v>1.035955828334422</v>
       </c>
       <c r="M13">
-        <v>1.023834315961007</v>
+        <v>1.046689192048648</v>
       </c>
       <c r="N13">
-        <v>1.010090542036992</v>
+        <v>1.015689343366945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9893732331914463</v>
+        <v>1.028604627356153</v>
       </c>
       <c r="D14">
-        <v>1.01198809541896</v>
+        <v>1.036792744163371</v>
       </c>
       <c r="E14">
-        <v>0.9998244470973303</v>
+        <v>1.032471219192364</v>
       </c>
       <c r="F14">
-        <v>1.009591280514875</v>
+        <v>1.043253380752377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039617663816863</v>
+        <v>1.035885543725274</v>
       </c>
       <c r="J14">
-        <v>1.019231175812015</v>
+        <v>1.035226370619339</v>
       </c>
       <c r="K14">
-        <v>1.026704097594483</v>
+        <v>1.040360628923238</v>
       </c>
       <c r="L14">
-        <v>1.014766648056801</v>
+        <v>1.036055189427844</v>
       </c>
       <c r="M14">
-        <v>1.024351292711283</v>
+        <v>1.04679749264431</v>
       </c>
       <c r="N14">
-        <v>1.010224624237012</v>
+        <v>1.015716144559721</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9898265799224948</v>
+        <v>1.028691646032922</v>
       </c>
       <c r="D15">
-        <v>1.01232051895903</v>
+        <v>1.036860108488305</v>
       </c>
       <c r="E15">
-        <v>1.000213538011713</v>
+        <v>1.032552326074246</v>
       </c>
       <c r="F15">
-        <v>1.010004090570502</v>
+        <v>1.043339778048513</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039744090226717</v>
+        <v>1.035904705843484</v>
       </c>
       <c r="J15">
-        <v>1.01947510416818</v>
+        <v>1.035275605900174</v>
       </c>
       <c r="K15">
-        <v>1.026943111214129</v>
+        <v>1.040408263142103</v>
       </c>
       <c r="L15">
-        <v>1.015059523225331</v>
+        <v>1.036116419232724</v>
       </c>
       <c r="M15">
-        <v>1.024668885211912</v>
+        <v>1.046864232268074</v>
       </c>
       <c r="N15">
-        <v>1.010306971236501</v>
+        <v>1.015732657270508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9924442320800662</v>
+        <v>1.029198409352875</v>
       </c>
       <c r="D16">
-        <v>1.014241776008532</v>
+        <v>1.037252447127109</v>
       </c>
       <c r="E16">
-        <v>1.002462655461593</v>
+        <v>1.033024807282749</v>
       </c>
       <c r="F16">
-        <v>1.01239030794117</v>
+        <v>1.043843076868714</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040471465747048</v>
+        <v>1.036015928770033</v>
       </c>
       <c r="J16">
-        <v>1.020883113084399</v>
+        <v>1.035562200861912</v>
       </c>
       <c r="K16">
-        <v>1.028322628364051</v>
+        <v>1.040685501971432</v>
       </c>
       <c r="L16">
-        <v>1.016751040342137</v>
+        <v>1.036472957037159</v>
       </c>
       <c r="M16">
-        <v>1.026503366506236</v>
+        <v>1.047252868449429</v>
       </c>
       <c r="N16">
-        <v>1.010782269961314</v>
+        <v>1.015828762083605</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9940680909341748</v>
+        <v>1.029516531143558</v>
       </c>
       <c r="D17">
-        <v>1.015435180925173</v>
+        <v>1.037498768696882</v>
       </c>
       <c r="E17">
-        <v>1.003860038514882</v>
+        <v>1.033321536554695</v>
       </c>
       <c r="F17">
-        <v>1.013872865165485</v>
+        <v>1.044159159255211</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04092036178816</v>
+        <v>1.036085423335687</v>
       </c>
       <c r="J17">
-        <v>1.021756147802627</v>
+        <v>1.035741994682778</v>
       </c>
       <c r="K17">
-        <v>1.029177881865152</v>
+        <v>1.040859394084377</v>
       </c>
       <c r="L17">
-        <v>1.017800724092025</v>
+        <v>1.036696738021345</v>
       </c>
       <c r="M17">
-        <v>1.027641947860917</v>
+        <v>1.047496809190147</v>
       </c>
       <c r="N17">
-        <v>1.011076952978813</v>
+        <v>1.015889040148927</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9950088788261381</v>
+        <v>1.029702173048155</v>
       </c>
       <c r="D18">
-        <v>1.016127125567033</v>
+        <v>1.037642521825181</v>
       </c>
       <c r="E18">
-        <v>1.004670375353502</v>
+        <v>1.033494740760259</v>
       </c>
       <c r="F18">
-        <v>1.014732591845317</v>
+        <v>1.044343659717333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041179579606133</v>
+        <v>1.036125859853688</v>
       </c>
       <c r="J18">
-        <v>1.022261779883995</v>
+        <v>1.035846872295773</v>
       </c>
       <c r="K18">
-        <v>1.029673171532794</v>
+        <v>1.040960817476714</v>
       </c>
       <c r="L18">
-        <v>1.018408976081352</v>
+        <v>1.036827313552396</v>
       </c>
       <c r="M18">
-        <v>1.028301776573929</v>
+        <v>1.047639152635148</v>
       </c>
       <c r="N18">
-        <v>1.011247613300785</v>
+        <v>1.015924197025866</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9953285946824244</v>
+        <v>1.029765486817425</v>
       </c>
       <c r="D19">
-        <v>1.016362365137176</v>
+        <v>1.037691551086873</v>
       </c>
       <c r="E19">
-        <v>1.004945886320746</v>
+        <v>1.033553820406176</v>
       </c>
       <c r="F19">
-        <v>1.015024894748041</v>
+        <v>1.044406592433948</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041267526171034</v>
+        <v>1.036139630934448</v>
       </c>
       <c r="J19">
-        <v>1.022433584318307</v>
+        <v>1.035882633985101</v>
       </c>
       <c r="K19">
-        <v>1.029841454061575</v>
+        <v>1.040995399354005</v>
       </c>
       <c r="L19">
-        <v>1.018615701694627</v>
+        <v>1.036871844505379</v>
       </c>
       <c r="M19">
-        <v>1.028526042244542</v>
+        <v>1.047687697676585</v>
       </c>
       <c r="N19">
-        <v>1.01130559873019</v>
+        <v>1.015936184207667</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9938945296462133</v>
+        <v>1.0294823906905</v>
       </c>
       <c r="D20">
-        <v>1.015307570846949</v>
+        <v>1.037472332649951</v>
       </c>
       <c r="E20">
-        <v>1.003710604458574</v>
+        <v>1.033289687157167</v>
       </c>
       <c r="F20">
-        <v>1.013714322950896</v>
+        <v>1.044125232632551</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040872470913259</v>
+        <v>1.036077977408197</v>
       </c>
       <c r="J20">
-        <v>1.021662852798871</v>
+        <v>1.03572270378218</v>
       </c>
       <c r="K20">
-        <v>1.029086491529429</v>
+        <v>1.040840737607006</v>
       </c>
       <c r="L20">
-        <v>1.017688519657436</v>
+        <v>1.03667272347685</v>
       </c>
       <c r="M20">
-        <v>1.027520234195524</v>
+        <v>1.047470630755479</v>
       </c>
       <c r="N20">
-        <v>1.01104546332882</v>
+        <v>1.015882573117247</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9891561835152242</v>
+        <v>1.028563042495433</v>
       </c>
       <c r="D21">
-        <v>1.011828973477733</v>
+        <v>1.036760552427991</v>
       </c>
       <c r="E21">
-        <v>0.99963820598619</v>
+        <v>1.03243246206618</v>
       </c>
       <c r="F21">
-        <v>1.009393685943001</v>
+        <v>1.043212095566165</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039557088264062</v>
+        <v>1.035876379922056</v>
       </c>
       <c r="J21">
-        <v>1.019114382202916</v>
+        <v>1.035202839516935</v>
       </c>
       <c r="K21">
-        <v>1.026589655091745</v>
+        <v>1.040337862376195</v>
       </c>
       <c r="L21">
-        <v>1.014626435909528</v>
+        <v>1.036025927943782</v>
       </c>
       <c r="M21">
-        <v>1.024199251029181</v>
+        <v>1.046765598304302</v>
       </c>
       <c r="N21">
-        <v>1.01018519581306</v>
+        <v>1.015708252356538</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9861162166900188</v>
+        <v>1.027985806295634</v>
       </c>
       <c r="D22">
-        <v>1.009602596005277</v>
+        <v>1.036313742951722</v>
       </c>
       <c r="E22">
-        <v>0.9970327624180982</v>
+        <v>1.031894648856522</v>
       </c>
       <c r="F22">
-        <v>1.006629403423843</v>
+        <v>1.042639200224234</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038705628872817</v>
+        <v>1.035748745286295</v>
       </c>
       <c r="J22">
-        <v>1.017478113731161</v>
+        <v>1.034876051614883</v>
       </c>
       <c r="K22">
-        <v>1.024986193962085</v>
+        <v>1.040021649668001</v>
       </c>
       <c r="L22">
-        <v>1.01266323093424</v>
+        <v>1.035619704067923</v>
       </c>
       <c r="M22">
-        <v>1.022070664662811</v>
+        <v>1.046322841256686</v>
       </c>
       <c r="N22">
-        <v>1.009632779973518</v>
+        <v>1.015598632612571</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9877336870282748</v>
+        <v>1.028291734229743</v>
       </c>
       <c r="D23">
-        <v>1.010786654644862</v>
+        <v>1.036550536706041</v>
       </c>
       <c r="E23">
-        <v>0.9984183359800107</v>
+        <v>1.032179643363083</v>
       </c>
       <c r="F23">
-        <v>1.008099449349729</v>
+        <v>1.042942785580932</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039159362137041</v>
+        <v>1.035816490211766</v>
       </c>
       <c r="J23">
-        <v>1.018348826451625</v>
+        <v>1.035049280857906</v>
       </c>
       <c r="K23">
-        <v>1.025839478298289</v>
+        <v>1.040189282879452</v>
       </c>
       <c r="L23">
-        <v>1.013707651520472</v>
+        <v>1.035835008591675</v>
       </c>
       <c r="M23">
-        <v>1.023203009424851</v>
+        <v>1.04655750482005</v>
       </c>
       <c r="N23">
-        <v>1.009926744733939</v>
+        <v>1.015656745596506</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9939729742081891</v>
+        <v>1.029497817023558</v>
       </c>
       <c r="D24">
-        <v>1.01536524514875</v>
+        <v>1.037484277721111</v>
       </c>
       <c r="E24">
-        <v>1.003778141879194</v>
+        <v>1.033304078136695</v>
       </c>
       <c r="F24">
-        <v>1.013785976853437</v>
+        <v>1.044140562196268</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040894118812438</v>
+        <v>1.036081342206722</v>
       </c>
       <c r="J24">
-        <v>1.021705019886687</v>
+        <v>1.035731420488583</v>
       </c>
       <c r="K24">
-        <v>1.029127797890775</v>
+        <v>1.040849167681496</v>
       </c>
       <c r="L24">
-        <v>1.017739232387589</v>
+        <v>1.036683574468112</v>
       </c>
       <c r="M24">
-        <v>1.027575244588725</v>
+        <v>1.047482459487564</v>
       </c>
       <c r="N24">
-        <v>1.011059695921329</v>
+        <v>1.015885495297659</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000964443577286</v>
+        <v>1.030900809440055</v>
       </c>
       <c r="D25">
-        <v>1.020516555670318</v>
+        <v>1.03857088217098</v>
       </c>
       <c r="E25">
-        <v>1.009813269377988</v>
+        <v>1.03461389848321</v>
       </c>
       <c r="F25">
-        <v>1.020188902938476</v>
+        <v>1.04553580170532</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042804983472657</v>
+        <v>1.036384822179073</v>
       </c>
       <c r="J25">
-        <v>1.025459393884719</v>
+        <v>1.036523272226108</v>
       </c>
       <c r="K25">
-        <v>1.032804513377526</v>
+        <v>1.041614728746268</v>
       </c>
       <c r="L25">
-        <v>1.022261133320696</v>
+        <v>1.037670160018253</v>
       </c>
       <c r="M25">
-        <v>1.032481692507341</v>
+        <v>1.048558045221443</v>
       </c>
       <c r="N25">
-        <v>1.012326662300543</v>
+        <v>1.016150854657187</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032022510714174</v>
+        <v>1.006356076629313</v>
       </c>
       <c r="D2">
-        <v>1.039439945612714</v>
+        <v>1.024503813744561</v>
       </c>
       <c r="E2">
-        <v>1.035662548159038</v>
+        <v>1.014489312463127</v>
       </c>
       <c r="F2">
-        <v>1.04665282801693</v>
+        <v>1.025149849445414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036623732717049</v>
+        <v>1.044250830575475</v>
       </c>
       <c r="J2">
-        <v>1.037155017940469</v>
+        <v>1.028348326410889</v>
       </c>
       <c r="K2">
-        <v>1.042225128265613</v>
+        <v>1.035632008866545</v>
       </c>
       <c r="L2">
-        <v>1.038458509889307</v>
+        <v>1.025750412347047</v>
       </c>
       <c r="M2">
-        <v>1.04941766266144</v>
+        <v>1.036269582604089</v>
       </c>
       <c r="N2">
-        <v>1.016362412607031</v>
+        <v>1.013301157430477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03283848813016</v>
+        <v>1.010171035723389</v>
       </c>
       <c r="D3">
-        <v>1.040072315802218</v>
+        <v>1.027332704646348</v>
       </c>
       <c r="E3">
-        <v>1.036426211215169</v>
+        <v>1.017809964754841</v>
       </c>
       <c r="F3">
-        <v>1.047466279922317</v>
+        <v>1.028672787827305</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036795366223756</v>
+        <v>1.045257172267258</v>
       </c>
       <c r="J3">
-        <v>1.037613794783101</v>
+        <v>1.030388216674462</v>
       </c>
       <c r="K3">
-        <v>1.042668186436973</v>
+        <v>1.03762740660014</v>
       </c>
       <c r="L3">
-        <v>1.039031735889701</v>
+        <v>1.028219924518575</v>
       </c>
       <c r="M3">
-        <v>1.050042795848377</v>
+        <v>1.038951482569191</v>
       </c>
       <c r="N3">
-        <v>1.016515960411325</v>
+        <v>1.013988965375103</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033367174661673</v>
+        <v>1.012595615812935</v>
       </c>
       <c r="D4">
-        <v>1.040482116614585</v>
+        <v>1.029133847364016</v>
       </c>
       <c r="E4">
-        <v>1.036921382031249</v>
+        <v>1.019925753147699</v>
       </c>
       <c r="F4">
-        <v>1.047993732321753</v>
+        <v>1.030917450373796</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036905570304299</v>
+        <v>1.045888815327086</v>
       </c>
       <c r="J4">
-        <v>1.037910680313308</v>
+        <v>1.031682521528114</v>
       </c>
       <c r="K4">
-        <v>1.042954799093532</v>
+        <v>1.038892921977782</v>
       </c>
       <c r="L4">
-        <v>1.03940301887937</v>
+        <v>1.029789495894868</v>
       </c>
       <c r="M4">
-        <v>1.050447739748749</v>
+        <v>1.040656516978093</v>
       </c>
       <c r="N4">
-        <v>1.016615284520294</v>
+        <v>1.014425228662592</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033589599032813</v>
+        <v>1.013604703036258</v>
       </c>
       <c r="D5">
-        <v>1.0406545422796</v>
+        <v>1.029884207092738</v>
       </c>
       <c r="E5">
-        <v>1.037129796432957</v>
+        <v>1.020807582257506</v>
       </c>
       <c r="F5">
-        <v>1.04821573333743</v>
+        <v>1.031852989172779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036951694866977</v>
+        <v>1.046149765728211</v>
       </c>
       <c r="J5">
-        <v>1.038035495979661</v>
+        <v>1.032220659879743</v>
       </c>
       <c r="K5">
-        <v>1.043075271620341</v>
+        <v>1.039418949734567</v>
       </c>
       <c r="L5">
-        <v>1.039559192667408</v>
+        <v>1.030442728729752</v>
       </c>
       <c r="M5">
-        <v>1.050618082039646</v>
+        <v>1.041366239695616</v>
       </c>
       <c r="N5">
-        <v>1.01665703233633</v>
+        <v>1.014606577531428</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033626954662672</v>
+        <v>1.013773543676518</v>
       </c>
       <c r="D6">
-        <v>1.040683501780687</v>
+        <v>1.030009799844493</v>
       </c>
       <c r="E6">
-        <v>1.037164804414722</v>
+        <v>1.020955203178241</v>
       </c>
       <c r="F6">
-        <v>1.048253023473954</v>
+        <v>1.032009601088294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036959427328232</v>
+        <v>1.046193313486188</v>
       </c>
       <c r="J6">
-        <v>1.0380564533343</v>
+        <v>1.032310668847991</v>
       </c>
       <c r="K6">
-        <v>1.043095498309305</v>
+        <v>1.03950692462814</v>
       </c>
       <c r="L6">
-        <v>1.03958541995633</v>
+        <v>1.030552026490006</v>
       </c>
       <c r="M6">
-        <v>1.05064668930217</v>
+        <v>1.041484995791813</v>
       </c>
       <c r="N6">
-        <v>1.016664041493028</v>
+        <v>1.014636907619289</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033370146062589</v>
+        <v>1.012609138979148</v>
       </c>
       <c r="D7">
-        <v>1.040484420005729</v>
+        <v>1.029143900348367</v>
       </c>
       <c r="E7">
-        <v>1.036924165916043</v>
+        <v>1.019937565949113</v>
       </c>
       <c r="F7">
-        <v>1.04799669769101</v>
+        <v>1.03092998267105</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036906187430281</v>
+        <v>1.045892320096528</v>
       </c>
       <c r="J7">
-        <v>1.037912348088366</v>
+        <v>1.031689735489352</v>
       </c>
       <c r="K7">
-        <v>1.042956408931368</v>
+        <v>1.038899974155808</v>
       </c>
       <c r="L7">
-        <v>1.039405105343542</v>
+        <v>1.02979825018703</v>
       </c>
       <c r="M7">
-        <v>1.050450015464733</v>
+        <v>1.040666027877952</v>
       </c>
       <c r="N7">
-        <v>1.016615842388845</v>
+        <v>1.014427659870659</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032298129243325</v>
+        <v>1.00765465547805</v>
       </c>
       <c r="D8">
-        <v>1.039653529635137</v>
+        <v>1.025466038038832</v>
       </c>
       <c r="E8">
-        <v>1.035920417283924</v>
+        <v>1.015618493246439</v>
       </c>
       <c r="F8">
-        <v>1.046927510028791</v>
+        <v>1.026347820421734</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036681913515568</v>
+        <v>1.044595022552996</v>
       </c>
       <c r="J8">
-        <v>1.037310057513658</v>
+        <v>1.029043118831297</v>
       </c>
       <c r="K8">
-        <v>1.042374876702046</v>
+        <v>1.036311760142873</v>
       </c>
       <c r="L8">
-        <v>1.038652157290242</v>
+        <v>1.026590977869495</v>
       </c>
       <c r="M8">
-        <v>1.049628837039676</v>
+        <v>1.037182339958684</v>
       </c>
       <c r="N8">
-        <v>1.016414311060057</v>
+        <v>1.013535456572052</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03041449495762</v>
+        <v>0.9985727044314865</v>
       </c>
       <c r="D9">
-        <v>1.038194185923415</v>
+        <v>1.018751882876084</v>
       </c>
       <c r="E9">
-        <v>1.034159656215723</v>
+        <v>1.007745143934712</v>
       </c>
       <c r="F9">
-        <v>1.04505193799485</v>
+        <v>1.017994750926215</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036280203305077</v>
+        <v>1.0421555727472</v>
       </c>
       <c r="J9">
-        <v>1.036249002639929</v>
+        <v>1.024175965056214</v>
       </c>
       <c r="K9">
-        <v>1.041349622558983</v>
+        <v>1.031547877453552</v>
       </c>
       <c r="L9">
-        <v>1.037328249141949</v>
+        <v>1.020713799092724</v>
       </c>
       <c r="M9">
-        <v>1.048185267205029</v>
+        <v>1.030802469713923</v>
       </c>
       <c r="N9">
-        <v>1.016058966282134</v>
+        <v>1.011893610217594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029162470320995</v>
+        <v>0.9922598461789062</v>
       </c>
       <c r="D10">
-        <v>1.037224621006888</v>
+        <v>1.014106342339167</v>
       </c>
       <c r="E10">
-        <v>1.032991291255478</v>
+        <v>1.002304089695276</v>
       </c>
       <c r="F10">
-        <v>1.043807374826085</v>
+        <v>1.012222076859606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036008061906288</v>
+        <v>1.040420379438564</v>
       </c>
       <c r="J10">
-        <v>1.03554188339682</v>
+        <v>1.020783960309019</v>
       </c>
       <c r="K10">
-        <v>1.040665849853208</v>
+        <v>1.028225489234446</v>
       </c>
       <c r="L10">
-        <v>1.036447674146314</v>
+        <v>1.016631867334688</v>
       </c>
       <c r="M10">
-        <v>1.047225308542532</v>
+        <v>1.026374109518958</v>
       </c>
       <c r="N10">
-        <v>1.015821949782445</v>
+        <v>1.010748800751747</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028621236711374</v>
+        <v>0.9894598519318343</v>
       </c>
       <c r="D11">
-        <v>1.036805601934494</v>
+        <v>1.012051602731705</v>
       </c>
       <c r="E11">
-        <v>1.032486699591943</v>
+        <v>0.9998987790334801</v>
       </c>
       <c r="F11">
-        <v>1.043269870907488</v>
+        <v>1.009670143783933</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035889202649187</v>
+        <v>1.039641829589559</v>
       </c>
       <c r="J11">
-        <v>1.03523576872494</v>
+        <v>1.019277783671533</v>
       </c>
       <c r="K11">
-        <v>1.040369721556383</v>
+        <v>1.02674976684353</v>
       </c>
       <c r="L11">
-        <v>1.036066876589112</v>
+        <v>1.0148226044861</v>
       </c>
       <c r="M11">
-        <v>1.046810231427294</v>
+        <v>1.024411970793273</v>
       </c>
       <c r="N11">
-        <v>1.015719296586966</v>
+        <v>1.010240358533254</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028420335620949</v>
+        <v>0.9884093480475556</v>
       </c>
       <c r="D12">
-        <v>1.036650083013782</v>
+        <v>1.011281622721871</v>
       </c>
       <c r="E12">
-        <v>1.032299471799216</v>
+        <v>0.9989975987460301</v>
       </c>
       <c r="F12">
-        <v>1.043070430464626</v>
+        <v>1.008714025971737</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035844900470971</v>
+        <v>1.039348431195506</v>
       </c>
       <c r="J12">
-        <v>1.035122076333331</v>
+        <v>1.018712476586208</v>
       </c>
       <c r="K12">
-        <v>1.040259720140187</v>
+        <v>1.026195829992499</v>
       </c>
       <c r="L12">
-        <v>1.035925507706749</v>
+        <v>1.014144028412278</v>
       </c>
       <c r="M12">
-        <v>1.04665614387067</v>
+        <v>1.023676161783576</v>
       </c>
       <c r="N12">
-        <v>1.015681163576975</v>
+        <v>1.010049514162747</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028463423351311</v>
+        <v>0.9886351659886369</v>
       </c>
       <c r="D13">
-        <v>1.036683436734939</v>
+        <v>1.011447096359798</v>
       </c>
       <c r="E13">
-        <v>1.032339623713101</v>
+        <v>0.9991912608352441</v>
       </c>
       <c r="F13">
-        <v>1.043113201469529</v>
+        <v>1.008919494199161</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03585441033056</v>
+        <v>1.039411558739313</v>
       </c>
       <c r="J13">
-        <v>1.035146463162829</v>
+        <v>1.018834005166848</v>
       </c>
       <c r="K13">
-        <v>1.040283316075256</v>
+        <v>1.026314916791699</v>
       </c>
       <c r="L13">
-        <v>1.035955828334422</v>
+        <v>1.014289885377674</v>
       </c>
       <c r="M13">
-        <v>1.046689192048648</v>
+        <v>1.023834315961007</v>
       </c>
       <c r="N13">
-        <v>1.015689343366945</v>
+        <v>1.010090542036992</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028604627356153</v>
+        <v>0.9893732331914465</v>
       </c>
       <c r="D14">
-        <v>1.036792744163371</v>
+        <v>1.01198809541896</v>
       </c>
       <c r="E14">
-        <v>1.032471219192364</v>
+        <v>0.9998244470973305</v>
       </c>
       <c r="F14">
-        <v>1.043253380752377</v>
+        <v>1.009591280514876</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035885543725274</v>
+        <v>1.039617663816863</v>
       </c>
       <c r="J14">
-        <v>1.035226370619339</v>
+        <v>1.019231175812015</v>
       </c>
       <c r="K14">
-        <v>1.040360628923238</v>
+        <v>1.026704097594483</v>
       </c>
       <c r="L14">
-        <v>1.036055189427844</v>
+        <v>1.014766648056801</v>
       </c>
       <c r="M14">
-        <v>1.04679749264431</v>
+        <v>1.024351292711283</v>
       </c>
       <c r="N14">
-        <v>1.015716144559721</v>
+        <v>1.010224624237013</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028691646032922</v>
+        <v>0.9898265799224943</v>
       </c>
       <c r="D15">
-        <v>1.036860108488305</v>
+        <v>1.01232051895903</v>
       </c>
       <c r="E15">
-        <v>1.032552326074246</v>
+        <v>1.000213538011712</v>
       </c>
       <c r="F15">
-        <v>1.043339778048513</v>
+        <v>1.010004090570502</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035904705843484</v>
+        <v>1.039744090226716</v>
       </c>
       <c r="J15">
-        <v>1.035275605900174</v>
+        <v>1.019475104168179</v>
       </c>
       <c r="K15">
-        <v>1.040408263142103</v>
+        <v>1.026943111214129</v>
       </c>
       <c r="L15">
-        <v>1.036116419232724</v>
+        <v>1.015059523225331</v>
       </c>
       <c r="M15">
-        <v>1.046864232268074</v>
+        <v>1.024668885211912</v>
       </c>
       <c r="N15">
-        <v>1.015732657270508</v>
+        <v>1.010306971236501</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.029198409352875</v>
+        <v>0.9924442320800663</v>
       </c>
       <c r="D16">
-        <v>1.037252447127109</v>
+        <v>1.014241776008532</v>
       </c>
       <c r="E16">
-        <v>1.033024807282749</v>
+        <v>1.002462655461592</v>
       </c>
       <c r="F16">
-        <v>1.043843076868714</v>
+        <v>1.01239030794117</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036015928770033</v>
+        <v>1.040471465747048</v>
       </c>
       <c r="J16">
-        <v>1.035562200861912</v>
+        <v>1.020883113084399</v>
       </c>
       <c r="K16">
-        <v>1.040685501971432</v>
+        <v>1.028322628364051</v>
       </c>
       <c r="L16">
-        <v>1.036472957037159</v>
+        <v>1.016751040342137</v>
       </c>
       <c r="M16">
-        <v>1.047252868449429</v>
+        <v>1.026503366506236</v>
       </c>
       <c r="N16">
-        <v>1.015828762083605</v>
+        <v>1.010782269961314</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029516531143558</v>
+        <v>0.9940680909341749</v>
       </c>
       <c r="D17">
-        <v>1.037498768696882</v>
+        <v>1.015435180925173</v>
       </c>
       <c r="E17">
-        <v>1.033321536554695</v>
+        <v>1.003860038514883</v>
       </c>
       <c r="F17">
-        <v>1.044159159255211</v>
+        <v>1.013872865165485</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036085423335687</v>
+        <v>1.04092036178816</v>
       </c>
       <c r="J17">
-        <v>1.035741994682778</v>
+        <v>1.021756147802628</v>
       </c>
       <c r="K17">
-        <v>1.040859394084377</v>
+        <v>1.029177881865152</v>
       </c>
       <c r="L17">
-        <v>1.036696738021345</v>
+        <v>1.017800724092025</v>
       </c>
       <c r="M17">
-        <v>1.047496809190147</v>
+        <v>1.027641947860918</v>
       </c>
       <c r="N17">
-        <v>1.015889040148927</v>
+        <v>1.011076952978813</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029702173048155</v>
+        <v>0.9950088788261381</v>
       </c>
       <c r="D18">
-        <v>1.037642521825181</v>
+        <v>1.016127125567033</v>
       </c>
       <c r="E18">
-        <v>1.033494740760259</v>
+        <v>1.004670375353502</v>
       </c>
       <c r="F18">
-        <v>1.044343659717333</v>
+        <v>1.014732591845316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036125859853688</v>
+        <v>1.041179579606132</v>
       </c>
       <c r="J18">
-        <v>1.035846872295773</v>
+        <v>1.022261779883995</v>
       </c>
       <c r="K18">
-        <v>1.040960817476714</v>
+        <v>1.029673171532794</v>
       </c>
       <c r="L18">
-        <v>1.036827313552396</v>
+        <v>1.018408976081352</v>
       </c>
       <c r="M18">
-        <v>1.047639152635148</v>
+        <v>1.028301776573928</v>
       </c>
       <c r="N18">
-        <v>1.015924197025866</v>
+        <v>1.011247613300785</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029765486817425</v>
+        <v>0.9953285946824242</v>
       </c>
       <c r="D19">
-        <v>1.037691551086873</v>
+        <v>1.016362365137177</v>
       </c>
       <c r="E19">
-        <v>1.033553820406176</v>
+        <v>1.004945886320746</v>
       </c>
       <c r="F19">
-        <v>1.044406592433948</v>
+        <v>1.015024894748041</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036139630934448</v>
+        <v>1.041267526171034</v>
       </c>
       <c r="J19">
-        <v>1.035882633985101</v>
+        <v>1.022433584318307</v>
       </c>
       <c r="K19">
-        <v>1.040995399354005</v>
+        <v>1.029841454061575</v>
       </c>
       <c r="L19">
-        <v>1.036871844505379</v>
+        <v>1.018615701694627</v>
       </c>
       <c r="M19">
-        <v>1.047687697676585</v>
+        <v>1.028526042244542</v>
       </c>
       <c r="N19">
-        <v>1.015936184207667</v>
+        <v>1.01130559873019</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.0294823906905</v>
+        <v>0.9938945296462134</v>
       </c>
       <c r="D20">
-        <v>1.037472332649951</v>
+        <v>1.015307570846949</v>
       </c>
       <c r="E20">
-        <v>1.033289687157167</v>
+        <v>1.003710604458574</v>
       </c>
       <c r="F20">
-        <v>1.044125232632551</v>
+        <v>1.013714322950896</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036077977408197</v>
+        <v>1.040872470913259</v>
       </c>
       <c r="J20">
-        <v>1.03572270378218</v>
+        <v>1.021662852798871</v>
       </c>
       <c r="K20">
-        <v>1.040840737607006</v>
+        <v>1.029086491529429</v>
       </c>
       <c r="L20">
-        <v>1.03667272347685</v>
+        <v>1.017688519657436</v>
       </c>
       <c r="M20">
-        <v>1.047470630755479</v>
+        <v>1.027520234195525</v>
       </c>
       <c r="N20">
-        <v>1.015882573117247</v>
+        <v>1.01104546332882</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028563042495433</v>
+        <v>0.9891561835152244</v>
       </c>
       <c r="D21">
-        <v>1.036760552427991</v>
+        <v>1.011828973477734</v>
       </c>
       <c r="E21">
-        <v>1.03243246206618</v>
+        <v>0.9996382059861899</v>
       </c>
       <c r="F21">
-        <v>1.043212095566165</v>
+        <v>1.009393685943001</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035876379922056</v>
+        <v>1.039557088264062</v>
       </c>
       <c r="J21">
-        <v>1.035202839516935</v>
+        <v>1.019114382202916</v>
       </c>
       <c r="K21">
-        <v>1.040337862376195</v>
+        <v>1.026589655091746</v>
       </c>
       <c r="L21">
-        <v>1.036025927943782</v>
+        <v>1.014626435909528</v>
       </c>
       <c r="M21">
-        <v>1.046765598304302</v>
+        <v>1.024199251029181</v>
       </c>
       <c r="N21">
-        <v>1.015708252356538</v>
+        <v>1.01018519581306</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027985806295634</v>
+        <v>0.9861162166900186</v>
       </c>
       <c r="D22">
-        <v>1.036313742951722</v>
+        <v>1.009602596005277</v>
       </c>
       <c r="E22">
-        <v>1.031894648856522</v>
+        <v>0.9970327624180982</v>
       </c>
       <c r="F22">
-        <v>1.042639200224234</v>
+        <v>1.006629403423843</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035748745286295</v>
+        <v>1.038705628872817</v>
       </c>
       <c r="J22">
-        <v>1.034876051614883</v>
+        <v>1.017478113731161</v>
       </c>
       <c r="K22">
-        <v>1.040021649668001</v>
+        <v>1.024986193962086</v>
       </c>
       <c r="L22">
-        <v>1.035619704067923</v>
+        <v>1.01266323093424</v>
       </c>
       <c r="M22">
-        <v>1.046322841256686</v>
+        <v>1.022070664662811</v>
       </c>
       <c r="N22">
-        <v>1.015598632612571</v>
+        <v>1.009632779973518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028291734229743</v>
+        <v>0.9877336870282764</v>
       </c>
       <c r="D23">
-        <v>1.036550536706041</v>
+        <v>1.010786654644863</v>
       </c>
       <c r="E23">
-        <v>1.032179643363083</v>
+        <v>0.9984183359800118</v>
       </c>
       <c r="F23">
-        <v>1.042942785580932</v>
+        <v>1.008099449349731</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035816490211766</v>
+        <v>1.039159362137042</v>
       </c>
       <c r="J23">
-        <v>1.035049280857906</v>
+        <v>1.018348826451626</v>
       </c>
       <c r="K23">
-        <v>1.040189282879452</v>
+        <v>1.025839478298291</v>
       </c>
       <c r="L23">
-        <v>1.035835008591675</v>
+        <v>1.013707651520473</v>
       </c>
       <c r="M23">
-        <v>1.04655750482005</v>
+        <v>1.023203009424853</v>
       </c>
       <c r="N23">
-        <v>1.015656745596506</v>
+        <v>1.009926744733939</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029497817023558</v>
+        <v>0.9939729742081883</v>
       </c>
       <c r="D24">
-        <v>1.037484277721111</v>
+        <v>1.015365245148749</v>
       </c>
       <c r="E24">
-        <v>1.033304078136695</v>
+        <v>1.003778141879193</v>
       </c>
       <c r="F24">
-        <v>1.044140562196268</v>
+        <v>1.013785976853436</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036081342206722</v>
+        <v>1.040894118812438</v>
       </c>
       <c r="J24">
-        <v>1.035731420488583</v>
+        <v>1.021705019886686</v>
       </c>
       <c r="K24">
-        <v>1.040849167681496</v>
+        <v>1.029127797890775</v>
       </c>
       <c r="L24">
-        <v>1.036683574468112</v>
+        <v>1.017739232387589</v>
       </c>
       <c r="M24">
-        <v>1.047482459487564</v>
+        <v>1.027575244588725</v>
       </c>
       <c r="N24">
-        <v>1.015885495297659</v>
+        <v>1.011059695921329</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030900809440055</v>
+        <v>1.000964443577287</v>
       </c>
       <c r="D25">
-        <v>1.03857088217098</v>
+        <v>1.020516555670318</v>
       </c>
       <c r="E25">
-        <v>1.03461389848321</v>
+        <v>1.009813269377989</v>
       </c>
       <c r="F25">
-        <v>1.04553580170532</v>
+        <v>1.020188902938477</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036384822179073</v>
+        <v>1.042804983472657</v>
       </c>
       <c r="J25">
-        <v>1.036523272226108</v>
+        <v>1.025459393884719</v>
       </c>
       <c r="K25">
-        <v>1.041614728746268</v>
+        <v>1.032804513377526</v>
       </c>
       <c r="L25">
-        <v>1.037670160018253</v>
+        <v>1.022261133320697</v>
       </c>
       <c r="M25">
-        <v>1.048558045221443</v>
+        <v>1.032481692507342</v>
       </c>
       <c r="N25">
-        <v>1.016150854657187</v>
+        <v>1.012326662300543</v>
       </c>
     </row>
   </sheetData>
